--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D8A98-FE6F-4D8F-A4E1-AC4E62DBF0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F85204-516A-4E0E-BA73-C6EACE83E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="3324" windowWidth="23040" windowHeight="12384" activeTab="1" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="6036" yWindow="2676" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
     <sheet name="音效表" sheetId="2" r:id="rId2"/>
+    <sheet name="植物种类" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +138,74 @@
   </si>
   <si>
     <t>下一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆荚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段1-&gt;阶段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段2-&gt;阶段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段3-&gt;阶段4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段4-&gt;阶段5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子-&gt;幼苗: 1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗-&gt;成熟: 1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗-&gt;成熟: 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +252,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,9 +324,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,20 +340,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,130 +690,130 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -716,310 +839,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB36987-EE7E-43CE-8693-6113EC216C76}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1030,6 +1133,410 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD779F3F-4A0D-4401-BE6D-3C988494DBFB}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F85204-516A-4E0E-BA73-C6EACE83E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B73A22-889A-4DAE-88AB-2AAC65F3827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="2676" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,14 @@
   </si>
   <si>
     <t>购买价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘第一个胡萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RipeFirstRadish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,6 +336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,16 +351,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,14 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,137 +691,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94486CD9-F27C-4F45-9C4B-A1C57FED558E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -846,36 +858,36 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
@@ -890,26 +902,26 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -920,26 +932,26 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -950,179 +962,199 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1133,26 +1165,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1163,318 +1175,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD779F3F-4A0D-4401-BE6D-3C988494DBFB}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A12:B13"/>
@@ -1483,55 +1544,6 @@
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A10:B11"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C10:D11"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B73A22-889A-4DAE-88AB-2AAC65F3827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04EED25-E862-4E1E-AD8D-2C2863025675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>RipeFirstRadish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有10个果实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收获10个果实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarvestTenFruitsAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasTenFruitsCurrently</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,16 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,6 +383,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94486CD9-F27C-4F45-9C4B-A1C57FED558E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -808,11 +824,15 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -827,8 +847,342 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="42">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -870,10 +1224,10 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -888,20 +1242,20 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
@@ -924,14 +1278,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -954,14 +1308,14 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -1135,26 +1489,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1165,6 +1499,26 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,38 +1540,38 @@
         <v>28</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1487,16 +1841,42 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="Q12:R13"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
@@ -1513,42 +1893,16 @@
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04EED25-E862-4E1E-AD8D-2C2863025675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C6942-1813-41DE-B090-0C8B437523A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" activeTab="1" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>HasTenFruitsCurrently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,22 +367,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,12 +401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,482 +719,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94486CD9-F27C-4F45-9C4B-A1C57FED558E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1195,6 +1177,36 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,290 +1217,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB36987-EE7E-43CE-8693-6113EC216C76}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1499,26 +1537,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,327 +1558,333 @@
         <v>28</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G2:H3"/>
@@ -1877,32 +1901,26 @@
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32F57A-3A7E-4F47-8683-9AF5A72B768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3116D-3A5D-4D17-943F-3BAF7BA4B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="360" windowWidth="15360" windowHeight="16920" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="5616" yWindow="2040" windowWidth="23040" windowHeight="12384" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,14 @@
   </si>
   <si>
     <t>HarvestTenFruitsTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have100MoneyCurrently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前拥有100金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,28 +387,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +415,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,455 +740,489 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E18" sqref="E18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1193,36 +1235,6 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1240,309 +1252,289 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1553,6 +1545,26 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1574,325 +1586,351 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="Q12:R13"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
@@ -1909,42 +1947,16 @@
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3116D-3A5D-4D17-943F-3BAF7BA4B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D570A-AC7E-4F3C-ADBF-923EAC5D225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5616" yWindow="2040" windowWidth="23040" windowHeight="12384" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采摘第一个土豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HarvestOneRadish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +258,10 @@
   </si>
   <si>
     <t>当前拥有100金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘一个土豆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,22 +387,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,12 +421,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,489 +740,459 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:H19"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1235,6 +1205,36 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,289 +1252,309 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1545,26 +1565,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,335 +1586,341 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G2:H3"/>
@@ -1931,32 +1937,26 @@
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D570A-AC7E-4F3C-ADBF-923EAC5D225A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259ECC17-7072-4BB1-8B9C-27C9AED9A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="2040" windowWidth="23040" windowHeight="12384" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="1572" yWindow="3624" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,22 @@
   </si>
   <si>
     <t>采摘一个土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子-&gt;幼苗1: 1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗1-&gt; 幼苗2: 1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗2-&gt;幼苗3: 1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼苗4-&gt; 成熟: 2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,28 +403,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,6 +431,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,460 +755,490 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94486CD9-F27C-4F45-9C4B-A1C57FED558E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1205,36 +1251,6 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,309 +1268,289 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1565,6 +1561,26 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD779F3F-4A0D-4401-BE6D-3C988494DBFB}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1586,325 +1602,379 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="11"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="Q12:R13"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
@@ -1921,42 +1991,16 @@
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259ECC17-7072-4BB1-8B9C-27C9AED9A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F734467-EEB3-4D9E-B548-8704029D6AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="3624" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="6924" yWindow="3696" windowWidth="23040" windowHeight="12384" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,14 @@
   </si>
   <si>
     <t>幼苗4-&gt; 成熟: 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarvestOneTomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘一个番茄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,22 +411,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,12 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,490 +763,464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94486CD9-F27C-4F45-9C4B-A1C57FED558E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1251,6 +1233,36 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,289 +1280,309 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1561,26 +1593,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1591,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD779F3F-4A0D-4401-BE6D-3C988494DBFB}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1602,363 +1614,369 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>4</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="4"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G2:H3"/>
@@ -1975,32 +1993,26 @@
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D53165-9103-4914-A9F5-3FDE630B91AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B71108C-E4CB-46AB-AE70-8F1C648B7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
@@ -379,22 +379,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,12 +413,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,487 +738,457 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1231,6 +1201,36 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,289 +1248,309 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1541,26 +1561,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1582,375 +1582,397 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>4</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2">
         <v>2</v>
       </c>
-      <c r="R8" s="4"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G2:H3"/>
@@ -1967,32 +1989,26 @@
     <mergeCell ref="O6:P7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18391A4B-D5F1-4C23-9A9A-F4B09512C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795EB32-1B3E-4A25-96D4-4C2C952AE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3252" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="1836" yWindow="3684" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -383,25 +383,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,12 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,487 +742,457 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1235,6 +1205,36 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,289 +1252,309 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1545,26 +1565,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1586,14 +1586,14 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="8" t="s">
         <v>56</v>
       </c>
@@ -1602,425 +1602,401 @@
         <v>34</v>
       </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4">
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>4</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
         <v>2</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>4</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
         <v>2</v>
       </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>4</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>2</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>2</v>
-      </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="M8:N9"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="K4:L5"/>
@@ -2037,16 +2013,50 @@
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:P11"/>
     <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E10:F11"/>
     <mergeCell ref="E12:F13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
     <mergeCell ref="E8:F9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="M8:N9"/>
     <mergeCell ref="G8:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Art/Excel/QF_Farm.xlsx
+++ b/Assets/Art/Excel/QF_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UintyProjects\QF_FarmProject\Assets\Art\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795EB32-1B3E-4A25-96D4-4C2C952AE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475D7EE-5477-4401-A015-BB5BDB94FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="3684" windowWidth="23040" windowHeight="12384" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{65FB41E6-D242-4D05-B3CA-7DB748AD5400}"/>
   </bookViews>
   <sheets>
     <sheet name="挑战表" sheetId="1" r:id="rId1"/>
@@ -383,31 +383,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +411,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,457 +742,487 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="E28:H29"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:H23"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A10:D11"/>
@@ -1205,36 +1235,6 @@
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:H9"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:H23"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="E28:H29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="A40:D41"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="E38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,309 +1252,289 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="I8:J9"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="A8:D9"/>
@@ -1565,6 +1545,26 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:H17"/>
+    <mergeCell ref="I16:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E10" sqref="E10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1586,14 +1586,14 @@
         <v>27</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="8" t="s">
         <v>56</v>
       </c>
@@ -1602,401 +1602,437 @@
         <v>34</v>
       </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="11" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>0.9</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>10</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>4</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
         <v>1</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
         <v>1</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>0.8</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>12</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>4</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
         <v>2</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>0.75</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>30</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
         <v>2</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4">
         <v>1</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>0.6</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>50</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>4</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
         <v>1</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <v>2</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>0.5</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>100</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>4</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
         <v>2</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
         <v>2</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
         <v>2</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="K4:L5"/>
@@ -2013,51 +2049,15 @@
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:P11"/>
     <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="M8:N9"/>
     <mergeCell ref="I10:J11"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
